--- a/biology/Zoologie/Anabate_flamboyant/Anabate_flamboyant.xlsx
+++ b/biology/Zoologie/Anabate_flamboyant/Anabate_flamboyant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philydor pyrrhodes
 L’Anabate flamboyant (Philydor pyrrhodes) est une espèce de passereaux de la famille des Furnariidae.
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau se rencontre en Bolivie, au Brésil, en Colombie, en Équateur, au Guyana, en Guyane, au Pérou, au Suriname et au Venezuela[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau se rencontre en Bolivie, au Brésil, en Colombie, en Équateur, au Guyana, en Guyane, au Pérou, au Suriname et au Venezuela.
 </t>
         </is>
       </c>
@@ -543,12 +557,14 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Philydor pyrrhodes (Cabanis, 1848)[2].
-L'espèce a été initialement classée dans le genre Anabates sous le protonyme Anabates pyrrhodes Cabanis, 1848[2].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Anabate flamboyant[2],[3].
-Philydor pyrrhodes a pour synonyme[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Philydor pyrrhodes (Cabanis, 1848).
+L'espèce a été initialement classée dans le genre Anabates sous le protonyme Anabates pyrrhodes Cabanis, 1848.
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Anabate flamboyant,.
+Philydor pyrrhodes a pour synonyme :
 Anabates pyrrhodes Cabanis, 1848</t>
         </is>
       </c>
